--- a/seatmap.xlsx
+++ b/seatmap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Users\junepark\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F78D22D-0C3E-4676-90D3-D8DE07707D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42355CC9-7216-42BD-B2D5-4DD45BACCBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22245" windowHeight="13996" tabRatio="499" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22245" windowHeight="13996" tabRatio="499" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A350 Mid Range" sheetId="1" r:id="rId1"/>
@@ -295,7 +295,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -304,7 +304,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -13715,7 +13715,7 @@
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="16.899999999999999"/>
@@ -15255,9 +15255,6 @@
       </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" t="s">
-        <v>1</v>
-      </c>
       <c r="K47" s="1" t="s">
         <v>8</v>
       </c>
@@ -15266,7 +15263,9 @@
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="1"/>
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -17615,8 +17614,8 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:L214"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="16.899999999999999"/>
@@ -21534,7 +21533,7 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:L216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A45" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
@@ -25480,7 +25479,7 @@
   <dimension ref="A1:L216"/>
   <sheetViews>
     <sheetView topLeftCell="A27" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="16.899999999999999"/>
@@ -29416,7 +29415,7 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:L216"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
